--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_7_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1897152.804953048</v>
+        <v>1894946.711546609</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604726</v>
+        <v>7094780.682604727</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673428</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>369.8928659337986</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866713</v>
+        <v>69.92680236866715</v>
       </c>
       <c r="S2" t="n">
         <v>180.0198424776875</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>112.4344629052089</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.8809963801552</v>
+        <v>57.88099638015522</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>159.035360425222</v>
       </c>
       <c r="T3" t="n">
-        <v>63.57939957019953</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8965846405547</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>110.3170243484548</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>130.8261391062617</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.4201179865476</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>52.99928112255609</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>64.72253987877465</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>199.8205072884966</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>187.1086023358201</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>37.83808333974897</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>146.6850513083906</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>163.9206648785249</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>64.76935934992291</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.85099796338696</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>59.72683757586863</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.921725653454</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>155.461091872994</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>57.02146927219734</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>89.55810438061366</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.3524204098381</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,19 +1819,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>68.77328890970972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>10.20389322926718</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796246</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2138,10 +2138,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2290,10 +2290,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>203.4068132192027</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>270.069702148647</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>145.5000104076908</v>
       </c>
       <c r="V25" t="n">
-        <v>27.62005636946034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>217.0914199928482</v>
+        <v>281.9749489218377</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>88.23797643592215</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>235.9955072668619</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.26879610203962</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C35" t="n">
         <v>329.7774754849618</v>
       </c>
       <c r="D35" t="n">
-        <v>319.1876253346372</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E35" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F35" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G35" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H35" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012746</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880162</v>
+        <v>6.081513486880141</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550213005</v>
+        <v>73.69234550213002</v>
       </c>
       <c r="T35" t="n">
         <v>168.4225538535744</v>
@@ -3329,7 +3329,7 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X35" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y35" t="n">
         <v>350.7425223700078</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C37" t="n">
-        <v>131.7514048125821</v>
+        <v>131.751404812582</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321666</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E37" t="n">
         <v>110.9385463605234</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368855</v>
+        <v>27.62731132947966</v>
       </c>
       <c r="G37" t="n">
-        <v>47.05891457179329</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>109.259598628275</v>
       </c>
       <c r="I37" t="n">
-        <v>60.8570041237923</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400154</v>
+        <v>53.43673638400152</v>
       </c>
       <c r="S37" t="n">
         <v>154.2736090453961</v>
@@ -3487,7 +3487,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y37" t="n">
         <v>183.089237066049</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774348</v>
+        <v>347.2384253774347</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D38" t="n">
-        <v>319.1876253346376</v>
+        <v>319.1876253346371</v>
       </c>
       <c r="E38" t="n">
-        <v>346.434953786216</v>
+        <v>346.4349537862159</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556657</v>
+        <v>371.3806294556656</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674077</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1123481012747</v>
+        <v>259.1123481012746</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880169</v>
+        <v>6.081513486880112</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550213005</v>
+        <v>73.69234550213002</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U38" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V38" t="n">
         <v>292.2568421840891</v>
@@ -3566,10 +3566,10 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924233</v>
+        <v>334.2356843924232</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700089</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125821</v>
+        <v>29.86123879271735</v>
       </c>
       <c r="D40" t="n">
-        <v>79.22433082924314</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368855</v>
+        <v>109.9256317368854</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I40" t="n">
-        <v>60.8570041237923</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400154</v>
+        <v>53.43673638400149</v>
       </c>
       <c r="S40" t="n">
         <v>154.2736090453961</v>
@@ -3715,7 +3715,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7164219195671</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V40" t="n">
         <v>216.6422270377822</v>
@@ -3724,7 +3724,7 @@
         <v>251.0275820505452</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029914</v>
+        <v>190.2142391029913</v>
       </c>
       <c r="Y40" t="n">
         <v>183.089237066049</v>
@@ -3740,7 +3740,7 @@
         <v>347.2384253774347</v>
       </c>
       <c r="C41" t="n">
-        <v>329.7774754849618</v>
+        <v>329.7774754849617</v>
       </c>
       <c r="D41" t="n">
         <v>319.1876253346371</v>
@@ -3752,13 +3752,13 @@
         <v>371.3806294556656</v>
       </c>
       <c r="G41" t="n">
-        <v>375.4263093674082</v>
+        <v>375.4263093674076</v>
       </c>
       <c r="H41" t="n">
         <v>259.1123481012746</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880141</v>
+        <v>6.081513486880127</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>73.69234550213002</v>
       </c>
       <c r="T41" t="n">
-        <v>168.4225538535744</v>
+        <v>168.4225538535743</v>
       </c>
       <c r="U41" t="n">
         <v>215.4997556728562</v>
@@ -3806,7 +3806,7 @@
         <v>334.2356843924232</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,10 +3901,10 @@
         <v>131.751404812582</v>
       </c>
       <c r="D43" t="n">
-        <v>113.1200567321665</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605234</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>109.9256317368854</v>
@@ -3913,10 +3913,10 @@
         <v>130.5303919729824</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400152</v>
+        <v>53.43673638400149</v>
       </c>
       <c r="S43" t="n">
         <v>154.2736090453961</v>
@@ -3952,10 +3952,10 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7164219195671</v>
+        <v>201.0893085080767</v>
       </c>
       <c r="V43" t="n">
-        <v>113.0731132856683</v>
+        <v>216.6422270377822</v>
       </c>
       <c r="W43" t="n">
         <v>251.0275820505452</v>
@@ -3977,7 +3977,7 @@
         <v>347.2384253774347</v>
       </c>
       <c r="C44" t="n">
-        <v>329.7774754849618</v>
+        <v>329.777475484962</v>
       </c>
       <c r="D44" t="n">
         <v>319.1876253346371</v>
@@ -3995,7 +3995,7 @@
         <v>259.1123481012746</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880141</v>
+        <v>6.081513486880112</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550213001</v>
+        <v>73.69234550213002</v>
       </c>
       <c r="T44" t="n">
         <v>168.4225538535743</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728562</v>
+        <v>215.4997556728561</v>
       </c>
       <c r="V44" t="n">
         <v>292.2568421840891</v>
@@ -4043,7 +4043,7 @@
         <v>334.2356843924232</v>
       </c>
       <c r="Y44" t="n">
-        <v>350.7425223700078</v>
+        <v>350.7425223700077</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>144.3365638958915</v>
       </c>
       <c r="C46" t="n">
         <v>131.751404812582</v>
@@ -4141,19 +4141,19 @@
         <v>113.1200567321665</v>
       </c>
       <c r="E46" t="n">
-        <v>110.9385463605234</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F46" t="n">
         <v>109.9256317368854</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5303919729824</v>
+        <v>26.96127822086954</v>
       </c>
       <c r="H46" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379228</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400152</v>
+        <v>53.43673638400149</v>
       </c>
       <c r="S46" t="n">
         <v>154.2736090453961</v>
@@ -4189,7 +4189,7 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U46" t="n">
-        <v>250.7164219195671</v>
+        <v>250.716421919567</v>
       </c>
       <c r="V46" t="n">
         <v>216.6422270377822</v>
@@ -4201,7 +4201,7 @@
         <v>190.2142391029913</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.74008445776005</v>
+        <v>183.089237066049</v>
       </c>
     </row>
   </sheetData>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>796.6032893450613</v>
+        <v>438.3375907383107</v>
       </c>
       <c r="C2" t="n">
-        <v>427.6407724046495</v>
+        <v>69.37507379789901</v>
       </c>
       <c r="D2" t="n">
         <v>69.37507379789901</v>
@@ -4331,7 +4331,7 @@
         <v>143.361340524478</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293493</v>
+        <v>406.6417666293494</v>
       </c>
       <c r="L2" t="n">
         <v>785.5410436024622</v>
@@ -4343,37 +4343,37 @@
         <v>1654.409655400859</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671742</v>
+        <v>2015.885456671741</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110674</v>
+        <v>2286.722307110673</v>
       </c>
       <c r="Q2" t="n">
         <v>2412.887742750812</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045088</v>
+        <v>2342.254609045087</v>
       </c>
       <c r="S2" t="n">
-        <v>2160.416384320151</v>
+        <v>2160.41638432015</v>
       </c>
       <c r="T2" t="n">
-        <v>1940.694284428201</v>
+        <v>2160.41638432015</v>
       </c>
       <c r="U2" t="n">
-        <v>1686.912625935711</v>
+        <v>1906.634725827661</v>
       </c>
       <c r="V2" t="n">
-        <v>1686.912625935711</v>
+        <v>1575.57183848409</v>
       </c>
       <c r="W2" t="n">
-        <v>1686.912625935711</v>
+        <v>1575.57183848409</v>
       </c>
       <c r="X2" t="n">
-        <v>1573.342461384995</v>
+        <v>1202.10608022301</v>
       </c>
       <c r="Y2" t="n">
-        <v>1183.203129409183</v>
+        <v>811.9667482471982</v>
       </c>
     </row>
     <row r="3">
@@ -4407,46 +4407,46 @@
         <v>48.25775485501624</v>
       </c>
       <c r="J3" t="n">
-        <v>48.25775485501624</v>
+        <v>70.84789150582816</v>
       </c>
       <c r="K3" t="n">
-        <v>282.4696009334097</v>
+        <v>305.0597375842215</v>
       </c>
       <c r="L3" t="n">
-        <v>658.8007278096526</v>
+        <v>681.3908644604644</v>
       </c>
       <c r="M3" t="n">
-        <v>1149.940624122023</v>
+        <v>1172.530760772835</v>
       </c>
       <c r="N3" t="n">
-        <v>1669.786545444867</v>
+        <v>1692.376682095678</v>
       </c>
       <c r="O3" t="n">
-        <v>2078.928325059891</v>
+        <v>2101.518461710702</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.2976061</v>
+        <v>2412.887742750812</v>
       </c>
       <c r="Q3" t="n">
         <v>2412.887742750812</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841565</v>
+        <v>2354.422089841564</v>
       </c>
       <c r="S3" t="n">
-        <v>2354.422089841565</v>
+        <v>2193.780311634269</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.20047411409</v>
+        <v>2193.780311634269</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.022105790298</v>
+        <v>1965.601943310477</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.869997558555</v>
+        <v>1730.449835078734</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.632640830353</v>
+        <v>1476.212478350532</v>
       </c>
       <c r="X3" t="n">
         <v>1364.78114062482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.25775485501624</v>
+        <v>403.0512277998298</v>
       </c>
       <c r="C4" t="n">
-        <v>48.25775485501624</v>
+        <v>403.0512277998298</v>
       </c>
       <c r="D4" t="n">
-        <v>48.25775485501624</v>
+        <v>403.0512277998298</v>
       </c>
       <c r="E4" t="n">
-        <v>48.25775485501624</v>
+        <v>403.0512277998298</v>
       </c>
       <c r="F4" t="n">
-        <v>48.25775485501624</v>
+        <v>270.9036125409796</v>
       </c>
       <c r="G4" t="n">
-        <v>48.25775485501624</v>
+        <v>101.7923822515375</v>
       </c>
       <c r="H4" t="n">
-        <v>48.25775485501624</v>
+        <v>101.7923822515375</v>
       </c>
       <c r="I4" t="n">
-        <v>48.25775485501624</v>
+        <v>101.7923822515375</v>
       </c>
       <c r="J4" t="n">
         <v>48.25775485501624</v>
       </c>
       <c r="K4" t="n">
-        <v>91.87143294461006</v>
+        <v>91.87143294461004</v>
       </c>
       <c r="L4" t="n">
         <v>203.2083598384342</v>
       </c>
       <c r="M4" t="n">
-        <v>330.9866617534285</v>
+        <v>330.9866617534284</v>
       </c>
       <c r="N4" t="n">
-        <v>461.1612976692849</v>
+        <v>461.1612976692847</v>
       </c>
       <c r="O4" t="n">
-        <v>565.3823477984521</v>
+        <v>565.3823477984519</v>
       </c>
       <c r="P4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="Q4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="R4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="S4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="T4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="U4" t="n">
-        <v>631.0407786978474</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="V4" t="n">
-        <v>565.6644757899942</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2473057530336</v>
+        <v>631.0407786978471</v>
       </c>
       <c r="X4" t="n">
-        <v>48.25775485501624</v>
+        <v>403.0512277998298</v>
       </c>
       <c r="Y4" t="n">
-        <v>48.25775485501624</v>
+        <v>403.0512277998298</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1920.409918978289</v>
+        <v>1435.441956461044</v>
       </c>
       <c r="C5" t="n">
-        <v>1551.447402037877</v>
+        <v>1066.479439520632</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.181703431127</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>807.3934508328825</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>396.407546043275</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>1822.041796525165</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785276</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661918</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9622657131106</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4802,7 +4802,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2531.572661847995</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2531.572661847995</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2277.810876486087</v>
+        <v>2631.72549571527</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>2300.662608371699</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>1947.893953101585</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1574.428194840505</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>688.885551920185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>519.9493689922781</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H11" t="n">
         <v>137.5579332089257</v>
@@ -5039,52 +5039,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M11" t="n">
-        <v>2016.310259422546</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N11" t="n">
-        <v>2996.062531649192</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.4509819463048</v>
+        <v>963.7739809829123</v>
       </c>
       <c r="C13" t="n">
-        <v>242.4509819463048</v>
+        <v>794.8377980550055</v>
       </c>
       <c r="D13" t="n">
-        <v>242.4509819463048</v>
+        <v>644.7211586426697</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>496.8080650602766</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>349.9181175623662</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208127</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858347</v>
+        <v>1184.566560126442</v>
       </c>
       <c r="Y13" t="n">
-        <v>424.0994467765445</v>
+        <v>963.7739809829123</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5276,28 +5276,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>818.2062848686776</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L14" t="n">
-        <v>1682.725100522032</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>658.156720752434</v>
+        <v>1043.422493530327</v>
       </c>
       <c r="C16" t="n">
-        <v>489.2205378245271</v>
+        <v>874.4863106024202</v>
       </c>
       <c r="D16" t="n">
-        <v>339.1038984121913</v>
+        <v>724.3696711900844</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>576.4565776076912</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>429.5666301097808</v>
       </c>
       <c r="G16" t="n">
         <v>339.1038984121913</v>
@@ -5437,13 +5437,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
@@ -5458,7 +5458,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
         <v>1674.827124689058</v>
@@ -5467,19 +5467,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783402</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W16" t="n">
-        <v>909.2731541783402</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="X16" t="n">
-        <v>909.2731541783402</v>
+        <v>1225.070958360567</v>
       </c>
       <c r="Y16" t="n">
-        <v>839.8051855826737</v>
+        <v>1225.070958360567</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5595,7 +5595,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320243</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.723860726786</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>550.787677798879</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>400.6710383865434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>252.7579448041504</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>105.8679973062401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>105.8679973062401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570258</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>901.3723255570258</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.3723255570258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M20" t="n">
-        <v>2782.232616025903</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870722</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5917,7 +5917,7 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
@@ -5938,7 +5938,7 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
         <v>1270.093287563029</v>
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O23" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>487.6897527103525</v>
+        <v>855.6340846510826</v>
       </c>
       <c r="C25" t="n">
-        <v>487.6897527103525</v>
+        <v>686.6979017231757</v>
       </c>
       <c r="D25" t="n">
-        <v>487.6897527103525</v>
+        <v>536.58126231084</v>
       </c>
       <c r="E25" t="n">
-        <v>339.7766591279594</v>
+        <v>388.6681687284469</v>
       </c>
       <c r="F25" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,7 +6148,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6166,31 +6166,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>1809.373758622187</v>
       </c>
       <c r="V25" t="n">
-        <v>1225.889052788861</v>
+        <v>1554.6892704163</v>
       </c>
       <c r="W25" t="n">
-        <v>936.4718827519</v>
+        <v>1265.27210037934</v>
       </c>
       <c r="X25" t="n">
-        <v>708.4823318538827</v>
+        <v>1037.282549481322</v>
       </c>
       <c r="Y25" t="n">
-        <v>487.6897527103525</v>
+        <v>1037.282549481322</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6306,10 +6306,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.5269503710301</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="C28" t="n">
-        <v>393.5907674431232</v>
+        <v>413.3805104860112</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307875</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6397,7 +6397,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U28" t="n">
-        <v>1737.059203485665</v>
+        <v>1359.923212702628</v>
       </c>
       <c r="V28" t="n">
-        <v>1482.374715279778</v>
+        <v>1105.238724496741</v>
       </c>
       <c r="W28" t="n">
-        <v>1192.957545242817</v>
+        <v>815.8215544597811</v>
       </c>
       <c r="X28" t="n">
-        <v>964.9679943448</v>
+        <v>815.8215544597811</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.1754152012699</v>
+        <v>595.0289753162509</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6467,13 +6467,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6494,19 +6494,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>331.5802510734989</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6622,19 +6622,19 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
@@ -6655,16 +6655,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6704,13 +6704,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
         <v>4075.973927750058</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6889,19 +6889,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208125</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838518</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858345</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423044</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D35" t="n">
         <v>1456.742661151839</v>
@@ -6923,31 +6923,31 @@
         <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529678</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G35" t="n">
-        <v>352.4579211424548</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H35" t="n">
-        <v>90.72827659571334</v>
+        <v>90.72827659571333</v>
       </c>
       <c r="I35" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J35" t="n">
-        <v>273.4644646386982</v>
+        <v>440.8701136590512</v>
       </c>
       <c r="K35" t="n">
-        <v>607.2838383285448</v>
+        <v>1095.593445794351</v>
       </c>
       <c r="L35" t="n">
-        <v>1471.8026539819</v>
+        <v>1546.62765904276</v>
       </c>
       <c r="M35" t="n">
-        <v>2450.352956811728</v>
+        <v>2080.159563714684</v>
       </c>
       <c r="N35" t="n">
-        <v>2997.131773870511</v>
+        <v>2647.224238984521</v>
       </c>
       <c r="O35" t="n">
         <v>3527.188889313976</v>
@@ -6974,13 +6974,13 @@
         <v>3471.820727203184</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y35" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="36">
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.3945831402971</v>
+        <v>582.2589880867704</v>
       </c>
       <c r="C37" t="n">
-        <v>641.3123560568808</v>
+        <v>449.1767610033542</v>
       </c>
       <c r="D37" t="n">
-        <v>527.0496724890359</v>
+        <v>334.9140774355092</v>
       </c>
       <c r="E37" t="n">
-        <v>414.9905347511335</v>
+        <v>222.8549396976068</v>
       </c>
       <c r="F37" t="n">
-        <v>303.9545430977138</v>
+        <v>194.9485646173243</v>
       </c>
       <c r="G37" t="n">
-        <v>256.4202859544882</v>
+        <v>194.9485646173243</v>
       </c>
       <c r="H37" t="n">
-        <v>146.0570550168367</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="I37" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J37" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497937</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218553</v>
       </c>
       <c r="L37" t="n">
         <v>755.6763338935368</v>
@@ -7135,10 +7135,10 @@
         <v>1105.127715425085</v>
       </c>
       <c r="X37" t="n">
-        <v>1105.127715425085</v>
+        <v>912.9921203715588</v>
       </c>
       <c r="Y37" t="n">
-        <v>920.189092126046</v>
+        <v>728.0534970725193</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C38" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D38" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E38" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424555</v>
+        <v>352.4579211424553</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571335</v>
+        <v>90.72827659571328</v>
       </c>
       <c r="I38" t="n">
         <v>84.58533367967277</v>
@@ -7175,25 +7175,25 @@
         <v>273.4644646386982</v>
       </c>
       <c r="K38" t="n">
-        <v>928.1877967739978</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L38" t="n">
-        <v>1379.222010022407</v>
+        <v>1058.318051576954</v>
       </c>
       <c r="M38" t="n">
-        <v>1912.753914694331</v>
+        <v>2036.868354406782</v>
       </c>
       <c r="N38" t="n">
-        <v>2459.532731753114</v>
+        <v>3016.620626633429</v>
       </c>
       <c r="O38" t="n">
-        <v>2962.505202632451</v>
+        <v>3519.593097512766</v>
       </c>
       <c r="P38" t="n">
-        <v>3646.712159243595</v>
+        <v>3914.367463869944</v>
       </c>
       <c r="Q38" t="n">
-        <v>4105.190361752583</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R38" t="n">
         <v>4229.266683983638</v>
@@ -7208,7 +7208,7 @@
         <v>3767.029658702264</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W38" t="n">
         <v>3154.906027777561</v>
@@ -7217,7 +7217,7 @@
         <v>2817.294225360972</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="39">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.2589880867702</v>
+        <v>582.2589880867705</v>
       </c>
       <c r="C40" t="n">
-        <v>449.1767610033539</v>
+        <v>552.0961206193792</v>
       </c>
       <c r="D40" t="n">
-        <v>369.1521844081588</v>
+        <v>437.8334370515342</v>
       </c>
       <c r="E40" t="n">
-        <v>257.0930466702564</v>
+        <v>437.8334370515342</v>
       </c>
       <c r="F40" t="n">
-        <v>146.0570550168367</v>
+        <v>326.7974453981146</v>
       </c>
       <c r="G40" t="n">
-        <v>146.0570550168367</v>
+        <v>194.9485646173243</v>
       </c>
       <c r="H40" t="n">
-        <v>146.0570550168367</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="I40" t="n">
         <v>84.58533367967277</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497936</v>
+        <v>164.8484282497938</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218556</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935367</v>
+        <v>755.676333893537</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
@@ -7351,31 +7351,31 @@
         <v>2113.740704045765</v>
       </c>
       <c r="Q40" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T40" t="n">
         <v>1830.770373008817</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.521461978951</v>
+        <v>1577.521461978952</v>
       </c>
       <c r="V40" t="n">
-        <v>1358.690929617555</v>
+        <v>1358.690929617556</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.127715425085</v>
+        <v>1105.127715425086</v>
       </c>
       <c r="X40" t="n">
-        <v>912.9921203715586</v>
+        <v>912.9921203715593</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.0534970725191</v>
+        <v>728.0534970725195</v>
       </c>
     </row>
     <row r="41">
@@ -7385,61 +7385,61 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D41" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E41" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529687</v>
+        <v>731.6764154529678</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424554</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571333</v>
+        <v>90.72827659571328</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J41" t="n">
-        <v>440.8701136590512</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K41" t="n">
-        <v>1095.593445794351</v>
+        <v>607.2838383285447</v>
       </c>
       <c r="L41" t="n">
-        <v>1546.62765904276</v>
+        <v>1058.318051576954</v>
       </c>
       <c r="M41" t="n">
-        <v>2080.159563714684</v>
+        <v>1591.849956248878</v>
       </c>
       <c r="N41" t="n">
-        <v>2626.938380773467</v>
+        <v>2138.628773307661</v>
       </c>
       <c r="O41" t="n">
-        <v>3506.903031102921</v>
+        <v>3018.593423637115</v>
       </c>
       <c r="P41" t="n">
-        <v>3901.6773974601</v>
+        <v>3731.948511084061</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426836</v>
+        <v>4170.249617426835</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983638</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355223</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583936</v>
       </c>
       <c r="U41" t="n">
         <v>3767.029658702264</v>
@@ -7448,13 +7448,13 @@
         <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.90602777756</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J42" t="n">
         <v>178.2626031702901</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>686.8742545030464</v>
+        <v>632.3873854721143</v>
       </c>
       <c r="C43" t="n">
-        <v>553.7920274196301</v>
+        <v>499.3051583886981</v>
       </c>
       <c r="D43" t="n">
-        <v>439.5293438517851</v>
+        <v>499.3051583886981</v>
       </c>
       <c r="E43" t="n">
-        <v>327.4702061138827</v>
+        <v>499.3051583886981</v>
       </c>
       <c r="F43" t="n">
-        <v>216.4342144604631</v>
+        <v>388.2691667352785</v>
       </c>
       <c r="G43" t="n">
-        <v>84.58533367967277</v>
+        <v>256.4202859544882</v>
       </c>
       <c r="H43" t="n">
-        <v>84.58533367967277</v>
+        <v>146.0570550168367</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J43" t="n">
         <v>164.8484282497937</v>
@@ -7573,10 +7573,10 @@
         <v>403.9760733218554</v>
       </c>
       <c r="L43" t="n">
-        <v>755.6763338935368</v>
+        <v>755.676333893537</v>
       </c>
       <c r="M43" t="n">
-        <v>1134.973841616271</v>
+        <v>1134.973841616272</v>
       </c>
       <c r="N43" t="n">
         <v>1511.522680445321</v>
@@ -7591,28 +7591,28 @@
         <v>2226.491462321465</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T43" t="n">
-        <v>1830.770373008816</v>
+        <v>1830.770373008817</v>
       </c>
       <c r="U43" t="n">
-        <v>1577.521461978951</v>
+        <v>1627.649859364295</v>
       </c>
       <c r="V43" t="n">
-        <v>1463.306196033831</v>
+        <v>1408.819327002899</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.742981841361</v>
+        <v>1155.256112810429</v>
       </c>
       <c r="X43" t="n">
-        <v>1017.607386787835</v>
+        <v>963.1205177569026</v>
       </c>
       <c r="Y43" t="n">
-        <v>832.6687634887953</v>
+        <v>778.1818944578632</v>
       </c>
     </row>
     <row r="44">
@@ -7622,61 +7622,61 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2112.26296501002</v>
+        <v>2112.262965010019</v>
       </c>
       <c r="C44" t="n">
-        <v>1779.154403914099</v>
+        <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.742661151839</v>
+        <v>1456.742661151838</v>
       </c>
       <c r="E44" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F44" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529681</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424557</v>
+        <v>352.4579211424553</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571333</v>
+        <v>90.72827659571328</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J44" t="n">
-        <v>273.4644646386982</v>
+        <v>312.5940521928654</v>
       </c>
       <c r="K44" t="n">
-        <v>607.2838383285448</v>
+        <v>646.4134258827119</v>
       </c>
       <c r="L44" t="n">
-        <v>1471.8026539819</v>
+        <v>1510.932241536067</v>
       </c>
       <c r="M44" t="n">
-        <v>2044.464146207992</v>
+        <v>2044.464146207991</v>
       </c>
       <c r="N44" t="n">
-        <v>3024.216418434639</v>
+        <v>3024.216418434638</v>
       </c>
       <c r="O44" t="n">
-        <v>3527.188889313976</v>
+        <v>3527.188889313975</v>
       </c>
       <c r="P44" t="n">
-        <v>3921.963255671154</v>
+        <v>3921.963255671153</v>
       </c>
       <c r="Q44" t="n">
-        <v>4170.249617426836</v>
+        <v>4170.249617426835</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983638</v>
+        <v>4229.266683983637</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355224</v>
+        <v>4154.829971355223</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583937</v>
+        <v>3984.706179583936</v>
       </c>
       <c r="U44" t="n">
         <v>3767.029658702264</v>
@@ -7685,13 +7685,13 @@
         <v>3471.820727203184</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.906027777561</v>
+        <v>3154.90602777756</v>
       </c>
       <c r="X44" t="n">
-        <v>2817.294225360972</v>
+        <v>2817.294225360971</v>
       </c>
       <c r="Y44" t="n">
-        <v>2463.008849229651</v>
+        <v>2463.00884922965</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.6170717285981</v>
+        <v>959.617071728598</v>
       </c>
       <c r="C45" t="n">
-        <v>785.1640424474712</v>
+        <v>785.164042447471</v>
       </c>
       <c r="D45" t="n">
-        <v>636.22963278622</v>
+        <v>636.2296327862198</v>
       </c>
       <c r="E45" t="n">
-        <v>476.9921777807645</v>
+        <v>476.9921777807642</v>
       </c>
       <c r="F45" t="n">
-        <v>330.4576198076495</v>
+        <v>330.4576198076492</v>
       </c>
       <c r="G45" t="n">
-        <v>194.0945196402682</v>
+        <v>194.0945196402673</v>
       </c>
       <c r="H45" t="n">
-        <v>103.5926252781352</v>
+        <v>103.5926252781348</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J45" t="n">
-        <v>178.2626031702904</v>
+        <v>178.2626031702901</v>
       </c>
       <c r="K45" t="n">
-        <v>416.5268021506378</v>
+        <v>416.5268021506373</v>
       </c>
       <c r="L45" t="n">
-        <v>783.224962463303</v>
+        <v>783.2249624633026</v>
       </c>
       <c r="M45" t="n">
         <v>1230.501287685619</v>
@@ -7755,13 +7755,13 @@
         <v>2453.544519866826</v>
       </c>
       <c r="T45" t="n">
-        <v>2260.901519544682</v>
+        <v>2260.901519544681</v>
       </c>
       <c r="U45" t="n">
         <v>2032.833672679097</v>
       </c>
       <c r="V45" t="n">
-        <v>1797.681564447355</v>
+        <v>1797.681564447354</v>
       </c>
       <c r="W45" t="n">
         <v>1543.444207719153</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>858.7092067778619</v>
+        <v>582.2589880867708</v>
       </c>
       <c r="C46" t="n">
-        <v>725.6269796944457</v>
+        <v>449.1767610033546</v>
       </c>
       <c r="D46" t="n">
-        <v>611.3642961266007</v>
+        <v>334.9140774355096</v>
       </c>
       <c r="E46" t="n">
-        <v>499.3051583886983</v>
+        <v>222.8549396976075</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352785</v>
+        <v>111.8189480441875</v>
       </c>
       <c r="G46" t="n">
-        <v>256.4202859544882</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0570550168367</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967277</v>
+        <v>84.58533367967276</v>
       </c>
       <c r="J46" t="n">
         <v>164.8484282497937</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218554</v>
+        <v>403.9760733218556</v>
       </c>
       <c r="L46" t="n">
         <v>755.676333893537</v>
@@ -7825,31 +7825,31 @@
         <v>2113.740704045765</v>
       </c>
       <c r="Q46" t="n">
-        <v>2226.491462321464</v>
+        <v>2226.491462321465</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.514960923483</v>
+        <v>2172.514960923484</v>
       </c>
       <c r="S46" t="n">
-        <v>2016.6830325948</v>
+        <v>2016.683032594801</v>
       </c>
       <c r="T46" t="n">
-        <v>1830.770373008817</v>
+        <v>1830.770373008818</v>
       </c>
       <c r="U46" t="n">
-        <v>1577.521461978951</v>
+        <v>1577.521461978952</v>
       </c>
       <c r="V46" t="n">
-        <v>1358.690929617555</v>
+        <v>1358.690929617556</v>
       </c>
       <c r="W46" t="n">
         <v>1105.127715425086</v>
       </c>
       <c r="X46" t="n">
-        <v>912.9921203715589</v>
+        <v>912.9921203715592</v>
       </c>
       <c r="Y46" t="n">
-        <v>858.7092067778619</v>
+        <v>728.0534970725198</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>62.50551572733622</v>
+        <v>85.3238355766412</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.88111353616841</v>
+        <v>53.062793686863</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8696,22 +8696,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>260.9678829613756</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>201.9664098701124</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>60.66917680434125</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>246.454569480845</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>258.621178561693</v>
       </c>
       <c r="P23" t="n">
-        <v>285.7011105564207</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>20.49076586975184</v>
       </c>
       <c r="O35" t="n">
-        <v>27.35822683245271</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10823,28 +10823,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>292.3561517716832</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>7.67251697091919</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>20.49076586975187</v>
+        <v>191.9340854415067</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>39.52483591330017</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>39.5248359133011</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>10.56471638603426</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>161.5631840798974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>76.46770387841457</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8113644423851</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>134.5511216850536</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23938,7 +23938,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24178,10 +24178,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>16.14213605696655</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>16.14213605696591</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,16 +24412,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>140.711827797922</v>
       </c>
       <c r="V25" t="n">
-        <v>224.5175869543677</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>69.12041821276469</v>
+        <v>4.236889283775239</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>58.19598621064701</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>161.5631840798977</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>82.29832040740578</v>
       </c>
       <c r="G37" t="n">
-        <v>83.47147740118916</v>
+        <v>130.5303919729824</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.85700412379228</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029914</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>101.8901660198647</v>
       </c>
       <c r="D40" t="n">
-        <v>33.89572590292342</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5303919729824</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>113.1200567321665</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>110.9385463605233</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>109.259598628275</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379228</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>49.62711341149037</v>
       </c>
       <c r="V43" t="n">
-        <v>103.5691137521139</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>144.3365638958915</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>103.5691137521129</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379227</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>129.3491526082889</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523276</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>892289.2632134022</v>
+        <v>892289.2632134024</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>892289.2632134022</v>
+        <v>892289.2632134021</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>892289.2632134022</v>
+        <v>892289.2632134021</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583919</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="E2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="F2" t="n">
         <v>536060.4122974274</v>
@@ -26335,25 +26335,25 @@
         <v>536060.4122974273</v>
       </c>
       <c r="J2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="K2" t="n">
         <v>536060.4122974274</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>536060.4122974275</v>
       </c>
-      <c r="L2" t="n">
-        <v>536060.4122974274</v>
-      </c>
       <c r="M2" t="n">
-        <v>549769.4860510235</v>
+        <v>549769.4860510234</v>
       </c>
       <c r="N2" t="n">
         <v>549769.4860510239</v>
       </c>
       <c r="O2" t="n">
+        <v>549769.4860510234</v>
+      </c>
+      <c r="P2" t="n">
         <v>549769.4860510238</v>
-      </c>
-      <c r="P2" t="n">
-        <v>549769.4860510232</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394268</v>
+        <v>507203.1428394266</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.28217418048</v>
+        <v>78665.28217418063</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26390,7 +26390,7 @@
         <v>157829.4001410734</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.9436702217</v>
+        <v>18289.94367022173</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>223242.9088455553</v>
+        <v>223242.9088455554</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="G4" t="n">
         <v>25090.72367499379</v>
       </c>
-      <c r="G4" t="n">
-        <v>25090.7236749938</v>
-      </c>
       <c r="H4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499378</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="J4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
+        <v>53328.24410000356</v>
+      </c>
+      <c r="N4" t="n">
+        <v>53328.24410000353</v>
+      </c>
+      <c r="O4" t="n">
+        <v>53328.24410000357</v>
+      </c>
+      <c r="P4" t="n">
         <v>53328.24410000355</v>
-      </c>
-      <c r="N4" t="n">
-        <v>53328.24410000351</v>
-      </c>
-      <c r="O4" t="n">
-        <v>53328.24410000353</v>
-      </c>
-      <c r="P4" t="n">
-        <v>53328.24410000356</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-253447.5457379245</v>
+        <v>-253447.5457379247</v>
       </c>
       <c r="C6" t="n">
-        <v>191614.3284930698</v>
+        <v>191614.3284930696</v>
       </c>
       <c r="D6" t="n">
-        <v>270279.6106672504</v>
+        <v>270279.6106672502</v>
       </c>
       <c r="E6" t="n">
-        <v>-312791.2436246867</v>
+        <v>-312858.4391149126</v>
       </c>
       <c r="F6" t="n">
-        <v>414586.17036872</v>
+        <v>414518.9748784941</v>
       </c>
       <c r="G6" t="n">
-        <v>414586.1703687198</v>
+        <v>414518.974878494</v>
       </c>
       <c r="H6" t="n">
-        <v>414586.1703687197</v>
+        <v>414518.9748784939</v>
       </c>
       <c r="I6" t="n">
-        <v>414586.1703687198</v>
+        <v>414518.974878494</v>
       </c>
       <c r="J6" t="n">
-        <v>256756.7702276465</v>
+        <v>256689.5747374206</v>
       </c>
       <c r="K6" t="n">
-        <v>396296.2266984984</v>
+        <v>396229.0312082724</v>
       </c>
       <c r="L6" t="n">
-        <v>414586.1703687199</v>
+        <v>414518.9748784942</v>
       </c>
       <c r="M6" t="n">
-        <v>281566.4009416081</v>
+        <v>281549.9797986178</v>
       </c>
       <c r="N6" t="n">
-        <v>405415.1921297837</v>
+        <v>405398.7709867934</v>
       </c>
       <c r="O6" t="n">
-        <v>405415.1921297836</v>
+        <v>405398.7709867927</v>
       </c>
       <c r="P6" t="n">
-        <v>405415.1921297829</v>
+        <v>405398.7709867932</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O2" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688979</v>
+        <v>316.5685789688978</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.221935687703</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26826,10 +26826,10 @@
         <v>1057.31667099591</v>
       </c>
       <c r="O4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
       <c r="P4" t="n">
-        <v>1057.31667099591</v>
+        <v>1057.316670995909</v>
       </c>
     </row>
   </sheetData>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688979</v>
+        <v>316.5685789688978</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818879</v>
+        <v>61.17508524818891</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.221935687703</v>
       </c>
       <c r="C4" t="n">
-        <v>71.06533706685252</v>
+        <v>71.06533706685263</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.221935687703</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685252</v>
+        <v>71.06533706685263</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877031</v>
+        <v>603.221935687703</v>
       </c>
       <c r="K4" t="n">
-        <v>71.06533706685252</v>
+        <v>71.06533706685263</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>12.84097572968199</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27397,7 +27397,7 @@
         <v>326.4414032841482</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208644</v>
+        <v>161.4125322208645</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>257.2966377732602</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27506,10 +27506,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.035360425222</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>133.8407392748823</v>
+        <v>197.4201388450818</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>95.45596085502265</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>14.59490891666957</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4201179865476</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>157.1516959462661</v>
@@ -27558,7 +27558,7 @@
         <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255608</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.3601878273908</v>
+        <v>38.36018782739082</v>
       </c>
       <c r="R4" t="n">
         <v>151.625388236511</v>
@@ -27594,10 +27594,10 @@
         <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
-        <v>187.4151034450533</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>154.8625343321864</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>226.6755676849749</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>107.5829646831823</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>139.8379470282004</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,13 +27901,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>10.49504793044665</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>186.4548081583664</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>140.9809822185503</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.666578317686799e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28858,10 +28858,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="W20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-8.176221546271964e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604581</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604533</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604464</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604579</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C41" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D41" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E41" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F41" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G41" t="n">
-        <v>35.49541628604527</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H41" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I41" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T41" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U41" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V41" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W41" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X41" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="K43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="L43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="M43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="R43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="S43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604555</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604581</v>
+        <v>35.49541628604582</v>
       </c>
     </row>
   </sheetData>
@@ -31045,40 +31045,40 @@
         <v>13.03339883161899</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954146</v>
+        <v>49.06335734954144</v>
       </c>
       <c r="J2" t="n">
         <v>108.0135173035638</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221707</v>
+        <v>161.8842628221706</v>
       </c>
       <c r="L2" t="n">
         <v>200.8317428166205</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175779</v>
+        <v>223.4640100175778</v>
       </c>
       <c r="N2" t="n">
-        <v>227.079891324092</v>
+        <v>227.0798913240919</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497323</v>
+        <v>214.4251021497322</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847286</v>
+        <v>183.0068637847285</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944827</v>
+        <v>137.4305331944826</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248256</v>
+        <v>79.94231557248253</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855784</v>
+        <v>29.00022710855783</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100905</v>
+        <v>5.570970671100904</v>
       </c>
       <c r="U2" t="n">
         <v>0.1018110002714042</v>
@@ -31118,22 +31118,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859314</v>
+        <v>0.6809210943859311</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674654</v>
+        <v>6.576264253674651</v>
       </c>
       <c r="I3" t="n">
-        <v>23.4439938198665</v>
+        <v>23.44399381986649</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933048</v>
+        <v>64.33211093933046</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631879</v>
+        <v>109.9538242631878</v>
       </c>
       <c r="L3" t="n">
-        <v>147.8464858665594</v>
+        <v>147.8464858665593</v>
       </c>
       <c r="M3" t="n">
         <v>172.5298755380493</v>
@@ -31142,25 +31142,25 @@
         <v>177.0962279648743</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313755</v>
+        <v>162.0084500313754</v>
       </c>
       <c r="P3" t="n">
         <v>130.0260640674328</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915854</v>
+        <v>86.91898039915851</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248793</v>
+        <v>42.27683777248792</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861587</v>
+        <v>12.64781067861586</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739784</v>
+        <v>2.744589849739782</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012708</v>
+        <v>0.04479744042012707</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5708613719111273</v>
+        <v>0.5708613719111271</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173481</v>
+        <v>5.075476561173479</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801827</v>
+        <v>17.16735834801826</v>
       </c>
       <c r="J4" t="n">
-        <v>40.3598989941167</v>
+        <v>40.35989899411668</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840187</v>
+        <v>66.32371211840184</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667797</v>
+        <v>84.87151705667794</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148697</v>
+        <v>89.48511487148694</v>
       </c>
       <c r="N4" t="n">
-        <v>87.3573588489092</v>
+        <v>87.35735884890917</v>
       </c>
       <c r="O4" t="n">
-        <v>80.6886600952201</v>
+        <v>80.68866009522007</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823304</v>
+        <v>69.04308810823302</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.80185542430358</v>
+        <v>47.80185542430356</v>
       </c>
       <c r="R4" t="n">
-        <v>25.6680031406585</v>
+        <v>25.66800314065849</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760279</v>
+        <v>9.948556817760275</v>
       </c>
       <c r="T4" t="n">
         <v>2.439134952711179</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03113789301333425</v>
+        <v>0.03113789301333424</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895131</v>
+        <v>96.06422794895127</v>
       </c>
       <c r="K2" t="n">
         <v>265.9398243483548</v>
@@ -34705,19 +34705,19 @@
         <v>382.7265423970837</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831376</v>
+        <v>442.6313102831375</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394852</v>
+        <v>435.0137521394851</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907909</v>
+        <v>365.1270719907908</v>
       </c>
       <c r="P2" t="n">
         <v>273.5725762009416</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799379</v>
+        <v>127.4398339799378</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>22.81831984930497</v>
       </c>
       <c r="K3" t="n">
-        <v>236.5776223014075</v>
+        <v>236.5776223014074</v>
       </c>
       <c r="L3" t="n">
-        <v>380.1324513901444</v>
+        <v>380.1324513901443</v>
       </c>
       <c r="M3" t="n">
         <v>496.1009053660309</v>
@@ -34790,13 +34790,13 @@
         <v>525.0968902250945</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636606</v>
+        <v>413.2745248636605</v>
       </c>
       <c r="P3" t="n">
         <v>314.5144252930397</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.81831984930544</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251902</v>
+        <v>44.05422029251899</v>
       </c>
       <c r="L4" t="n">
         <v>112.4615423169941</v>
       </c>
       <c r="M4" t="n">
-        <v>129.0689918333276</v>
+        <v>129.0689918333275</v>
       </c>
       <c r="N4" t="n">
         <v>131.4895312281378</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092598</v>
+        <v>105.2737880092597</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312652</v>
+        <v>66.32164737312651</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
@@ -35416,22 +35416,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>769.0208838495947</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>539.1576964255129</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35896,7 +35896,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>516.2592911966734</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>798.7564048937564</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36142,7 +36142,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>766.6741794499121</v>
       </c>
       <c r="P23" t="n">
-        <v>684.4630967757926</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36835,7 +36835,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36844,7 +36844,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37081,7 +37081,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>572.7926012826633</v>
       </c>
       <c r="O35" t="n">
-        <v>535.4112277206718</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911201</v>
+        <v>81.07383289911203</v>
       </c>
       <c r="K37" t="n">
         <v>241.5430758303654</v>
@@ -37473,7 +37473,7 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N37" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O37" t="n">
         <v>337.8485465086856</v>
@@ -37543,28 +37543,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>691.1181379910551</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>258.4668217746387</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911201</v>
+        <v>81.07383289911205</v>
       </c>
       <c r="K40" t="n">
         <v>241.5430758303654</v>
@@ -37707,16 +37707,16 @@
         <v>355.2527884562439</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N40" t="n">
-        <v>380.3523624535858</v>
+        <v>380.3523624535859</v>
       </c>
       <c r="O40" t="n">
         <v>337.8485465086856</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q40" t="n">
         <v>113.8896548239395</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37795,10 +37795,10 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>271.2850706734714</v>
+        <v>442.7283902452261</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911203</v>
+        <v>81.07383289911205</v>
       </c>
       <c r="K43" t="n">
         <v>241.5430758303654</v>
@@ -37944,7 +37944,7 @@
         <v>355.2527884562439</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N43" t="n">
         <v>380.3523624535859</v>
@@ -37953,7 +37953,7 @@
         <v>337.8485465086856</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q43" t="n">
         <v>113.8896548239395</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>230.3118368820127</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38023,7 +38023,7 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>578.4459517435279</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
         <v>989.6487598248956</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911206</v>
+        <v>81.07383289911205</v>
       </c>
       <c r="K46" t="n">
         <v>241.5430758303654</v>
       </c>
       <c r="L46" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M46" t="n">
-        <v>383.1287956795296</v>
+        <v>383.1287956795297</v>
       </c>
       <c r="N46" t="n">
         <v>380.3523624535859</v>
@@ -38190,7 +38190,7 @@
         <v>337.8485465086856</v>
       </c>
       <c r="P46" t="n">
-        <v>270.4524874311562</v>
+        <v>270.4524874311563</v>
       </c>
       <c r="Q46" t="n">
         <v>113.8896548239395</v>
